--- a/data/trans_camb/P2A_psíq_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Clase-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad psíquica</t>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 2,19</t>
+          <t>-0,16; 2,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,54</t>
+          <t>-0,87; 0,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,42</t>
+          <t>0,7; 3,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,24</t>
+          <t>-1,77; 3,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,72</t>
+          <t>-2,94; 0,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,97</t>
+          <t>-1,31; 2,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 2,14</t>
+          <t>-0,4; 2,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,46</t>
+          <t>-1,31; 0,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,74</t>
+          <t>0,34; 2,69</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-71,72; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,95; —</t>
+          <t>14,77; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-64,38; 445,36</t>
+          <t>-64,13; 469,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 147,83</t>
+          <t>-100,0; 156,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,84; 370,27</t>
+          <t>-53,57; 382,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,97; 456,86</t>
+          <t>-34,12; 444,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-87,17; 146,3</t>
+          <t>-87,16; 127,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 597,41</t>
+          <t>5,59; 501,11</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 3,89</t>
+          <t>-0,36; 4,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,78</t>
+          <t>-1,41; 1,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,35</t>
+          <t>-0,93; 2,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,27</t>
+          <t>-1,32; 1,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,84</t>
+          <t>-0,78; 2,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,06</t>
+          <t>0,09; 3,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,32</t>
+          <t>-0,33; 2,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,68</t>
+          <t>-0,5; 1,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 2,25</t>
+          <t>-0,03; 2,12</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-65,61; 1442,28</t>
+          <t>-65,84; 1325,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-72,27; 778,0</t>
+          <t>-67,08; 754,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1027,27 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,21; —</t>
+          <t>-84,61; 1274,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 1376,87</t>
+          <t>-21,05; 1103,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,88; 544,89</t>
+          <t>-44,35; 539,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,28; 442,19</t>
+          <t>-54,63; 412,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 621,7</t>
+          <t>-9,81; 522,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,0</t>
+          <t>0,86; 4,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 1,23</t>
+          <t>-0,7; 1,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 2,11</t>
+          <t>-0,55; 2,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,57</t>
+          <t>-2,05; 1,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 1,21</t>
+          <t>-2,6; 1,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,02</t>
+          <t>-1,57; 3,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,95</t>
+          <t>0,41; 2,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,89</t>
+          <t>-0,83; 0,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,9</t>
+          <t>-0,68; 1,93</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>35,57; 1869,37</t>
+          <t>35,97; 1983,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>-84,37; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-53,12; 1247,66</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-67,23; 1120,29</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,72; 1084,15</t>
+          <t>-2,78; 898,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-80,54; 374,86</t>
+          <t>-81,63; 412,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,58; 562,81</t>
+          <t>-54,12; 520,42</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,11</t>
+          <t>-0,59; 1,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 0,28</t>
+          <t>-1,14; 0,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,95</t>
+          <t>0,05; 1,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,47</t>
+          <t>-0,36; 2,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 1,18</t>
+          <t>-1,21; 1,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 57,75</t>
+          <t>0,6; 58,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 1,32</t>
+          <t>-0,2; 1,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,46</t>
+          <t>-0,87; 0,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 38,78</t>
+          <t>0,76; 36,11</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-48,33; 212,01</t>
+          <t>-48,37; 205,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-80,78; 58,74</t>
+          <t>-80,3; 79,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 328,88</t>
+          <t>-8,12; 330,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,15; 300,97</t>
+          <t>-23,22; 324,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-61,94; 180,61</t>
+          <t>-55,9; 150,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,03; 8476,38</t>
+          <t>29,89; 9507,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 177,01</t>
+          <t>-18,02; 174,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-57,86; 59,33</t>
+          <t>-56,05; 57,39</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>71,25; 4507,09</t>
+          <t>59,13; 4438,89</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,81</t>
+          <t>-0,9; 1,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 2,54</t>
+          <t>-0,21; 2,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,23; 3,72</t>
+          <t>0,32; 3,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,61</t>
+          <t>0,98; 3,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,87</t>
+          <t>0,95; 3,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,19</t>
+          <t>0,87; 3,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,71</t>
+          <t>0,76; 2,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,81</t>
+          <t>0,83; 2,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,91</t>
+          <t>1,18; 3,04</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-73,01; 730,94</t>
+          <t>-69,38; 896,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-52,37; 830,92</t>
+          <t>-41,33; 1035,91</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 1121,0</t>
+          <t>-12,08; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>40,93; 2276,76</t>
+          <t>52,72; 2111,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>43,57; 2412,81</t>
+          <t>42,33; 2252,46</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>41,5; 1700,77</t>
+          <t>52,86; 1682,47</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>38,6; 827,81</t>
+          <t>38,97; 943,98</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>44,68; 911,26</t>
+          <t>61,65; 962,16</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>67,01; 982,06</t>
+          <t>80,98; 1027,17</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 5,4</t>
+          <t>-1,23; 5,34</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,56</t>
+          <t>-3,17; 1,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 4,95</t>
+          <t>-2,02; 5,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,75</t>
+          <t>-0,35; 1,77</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,2</t>
+          <t>-0,84; 1,09</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,78</t>
+          <t>1,03; 3,83</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,91</t>
+          <t>-0,14; 1,96</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,85</t>
+          <t>-1,01; 0,94</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,5</t>
+          <t>0,78; 3,49</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-46,26; 504,55</t>
+          <t>-44,47; 506,03</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-84,46; 195,19</t>
+          <t>-82,95; 224,08</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-67,73; 537,67</t>
+          <t>-67,87; 440,0</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 230,81</t>
+          <t>-24,72; 184,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-52,53; 160,7</t>
+          <t>-55,12; 130,75</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>53,82; 444,28</t>
+          <t>52,51; 408,12</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 188,6</t>
+          <t>-10,51; 184,04</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-52,2; 83,54</t>
+          <t>-51,0; 90,11</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>41,78; 315,41</t>
+          <t>32,94; 314,58</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,59</t>
+          <t>0,37; 1,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,56</t>
+          <t>-0,44; 0,48</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,81</t>
+          <t>0,42; 1,78</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,52</t>
+          <t>0,25; 1,49</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,03</t>
+          <t>-0,15; 1,09</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,36; 25,32</t>
+          <t>1,4; 24,4</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,4</t>
+          <t>0,52; 1,37</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 0,64</t>
+          <t>-0,11; 0,61</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,2; 15,16</t>
+          <t>1,22; 14,11</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>29,67; 233,42</t>
+          <t>27,48; 221,04</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-40,25; 79,89</t>
+          <t>-40,85; 69,77</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>40,44; 263,87</t>
+          <t>34,41; 260,17</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>20,6; 162,2</t>
+          <t>17,33; 159,15</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 107,73</t>
+          <t>-11,64; 114,66</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>104,89; 2218,69</t>
+          <t>110,02; 2480,67</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>42,7; 159,05</t>
+          <t>43,52; 158,94</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 75,2</t>
+          <t>-9,35; 68,88</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>109,44; 1537,37</t>
+          <t>111,47; 1578,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_psíq_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
